--- a/gastodebolsilloregional.xlsx
+++ b/gastodebolsilloregional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VALERIE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{549133EA-DB1E-4575-AB2F-5427A12EB38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC7922-99A8-4A09-A523-BD5A53877B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F46A2AB7-FD22-45A2-BBE1-65BF8651937C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Red Asistencial</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Ucayali</t>
+  </si>
+  <si>
+    <t>Ess_18</t>
   </si>
 </sst>
 </file>
@@ -710,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B43E279-875B-43D8-B192-DA8859CF6228}">
   <dimension ref="A2:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +877,7 @@
         <v>51</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>52</v>
